--- a/data_operateurs_test.xlsx
+++ b/data_operateurs_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louau\Projets\Ademe_RCP_FAI\modele-rcp-fai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aubet Louise\Projet\Ademe_RCP_FAI\modele-rcp-fai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8478C08-965B-43E6-BB0E-26B979BDAF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9641B07A-B037-4B08-BB76-E9F746FC8749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,21 +33,9 @@
     <t>nb_abonnes_fix</t>
   </si>
   <si>
-    <t>quantite_donnees_fix</t>
-  </si>
-  <si>
     <t>nb_abonnes_mob</t>
   </si>
   <si>
-    <t>quantite_donnees_mob</t>
-  </si>
-  <si>
-    <t>conso_elec_fix</t>
-  </si>
-  <si>
-    <t>conso_elec_mob</t>
-  </si>
-  <si>
     <t>operateur1</t>
   </si>
   <si>
@@ -61,6 +49,18 @@
   </si>
   <si>
     <t>operateur5</t>
+  </si>
+  <si>
+    <t>quantite_donnees_fix_To</t>
+  </si>
+  <si>
+    <t>quantite_donnees_mob_To</t>
+  </si>
+  <si>
+    <t>conso_elec_fix_kWh</t>
+  </si>
+  <si>
+    <t>conso_elec_mob_kWh</t>
   </si>
 </sst>
 </file>
@@ -381,18 +381,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.1796875" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -403,24 +403,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>400</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>700</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>400</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>100</v>
